--- a/data/trans_orig/P0802-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>446949</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>427138</v>
+        <v>425830</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>467187</v>
+        <v>466468</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7651383298781996</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7312235316285517</v>
+        <v>0.72898528625345</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7997838959354006</v>
+        <v>0.7985535706747267</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>577</v>
@@ -765,19 +765,19 @@
         <v>602775</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>572618</v>
+        <v>573737</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>632710</v>
+        <v>629707</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6535332830555517</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6208366770518234</v>
+        <v>0.6220499831372094</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6859888991045432</v>
+        <v>0.6827333224776243</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1010</v>
@@ -786,19 +786,19 @@
         <v>1049724</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1012283</v>
+        <v>1012149</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1087013</v>
+        <v>1082985</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6968085773576974</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6719548961086158</v>
+        <v>0.6718659183154627</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7215609938553617</v>
+        <v>0.7188870317079632</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>91995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>73417</v>
+        <v>75728</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>109649</v>
+        <v>112135</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1574870566226048</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1256845441615683</v>
+        <v>0.1296403335667916</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1877090800021356</v>
+        <v>0.1919653288465926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>203</v>
@@ -836,19 +836,19 @@
         <v>210705</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>184386</v>
+        <v>186383</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>235766</v>
+        <v>238774</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2284477858664297</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1999124875892729</v>
+        <v>0.2020777048639589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2556197010025872</v>
+        <v>0.2588802342975668</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>296</v>
@@ -857,19 +857,19 @@
         <v>302700</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>271384</v>
+        <v>271872</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>337242</v>
+        <v>333805</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2009324849965569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1801450672050558</v>
+        <v>0.1804688114937496</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2238615973601837</v>
+        <v>0.2215803519812313</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>45198</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34338</v>
+        <v>34459</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58055</v>
+        <v>59783</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07737461349919551</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05878295512961775</v>
+        <v>0.05899016695268503</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09938511056696044</v>
+        <v>0.1023438169397064</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>105</v>
@@ -907,19 +907,19 @@
         <v>108853</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>89202</v>
+        <v>90250</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>129085</v>
+        <v>130410</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1180189310780186</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09671342828746475</v>
+        <v>0.09784967216414373</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1399548365541254</v>
+        <v>0.1413915871805339</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>153</v>
@@ -928,19 +928,19 @@
         <v>154050</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>132436</v>
+        <v>133702</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>177993</v>
+        <v>180133</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1022589376457457</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0879113711883617</v>
+        <v>0.08875179945244921</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1181521282712711</v>
+        <v>0.1195727459703371</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>920215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896219</v>
+        <v>894904</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>940157</v>
+        <v>940853</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8537156736848579</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8314538035204914</v>
+        <v>0.8302341869625485</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.872216630608994</v>
+        <v>0.8728623209760704</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>812</v>
@@ -1053,19 +1053,19 @@
         <v>833972</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>808536</v>
+        <v>805273</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>859113</v>
+        <v>857412</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.788598014367493</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7645459086403013</v>
+        <v>0.7614598489060324</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8123706695703417</v>
+        <v>0.8107623630765952</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1705</v>
@@ -1074,19 +1074,19 @@
         <v>1754187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1718967</v>
+        <v>1716959</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1788904</v>
+        <v>1786652</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8214672114289276</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8049739040595616</v>
+        <v>0.8040336013637408</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8377248047209018</v>
+        <v>0.8366700260153653</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>122143</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>103311</v>
+        <v>103718</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>144570</v>
+        <v>144569</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1133164442083775</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09584554444175011</v>
+        <v>0.09622281681211305</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1341224021916127</v>
+        <v>0.1341221594547324</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>173</v>
@@ -1124,19 +1124,19 @@
         <v>177651</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>156483</v>
+        <v>156414</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>200767</v>
+        <v>202639</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1679855298529754</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1479695132134924</v>
+        <v>0.1479035434001705</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1898441059498793</v>
+        <v>0.1916140165133692</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>299</v>
@@ -1145,19 +1145,19 @@
         <v>299794</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>270111</v>
+        <v>269345</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>334352</v>
+        <v>331752</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.140390420199801</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1264899249226923</v>
+        <v>0.1261314548014071</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1565734294163955</v>
+        <v>0.1553558785869817</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>35536</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25594</v>
+        <v>25039</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49124</v>
+        <v>48956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03296788210676465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02374421245200958</v>
+        <v>0.02322943621553869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0455745164958278</v>
+        <v>0.04541805105314761</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1195,19 +1195,19 @@
         <v>45915</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34461</v>
+        <v>33918</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61800</v>
+        <v>59676</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0434164557795316</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03258603463629981</v>
+        <v>0.03207227821250674</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05843779084407402</v>
+        <v>0.05642946817078309</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -1216,19 +1216,19 @@
         <v>81450</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66277</v>
+        <v>66020</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99946</v>
+        <v>102410</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03814236837127134</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03103698970867435</v>
+        <v>0.03091662469958131</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04680382269918575</v>
+        <v>0.04795751615366097</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>1000442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>980396</v>
+        <v>977658</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1020130</v>
+        <v>1019494</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8919821800063269</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.874109545659059</v>
+        <v>0.8716679249637811</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9095357622132779</v>
+        <v>0.9089684726759686</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>808</v>
@@ -1341,19 +1341,19 @@
         <v>814044</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>789109</v>
+        <v>788991</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>837507</v>
+        <v>836482</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8190068864164135</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7939197710153431</v>
+        <v>0.7938018849568158</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8426128747247511</v>
+        <v>0.8415818432667915</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1788</v>
@@ -1362,19 +1362,19 @@
         <v>1814486</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1782645</v>
+        <v>1782629</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1845487</v>
+        <v>1844088</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8576962557118298</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.842645263994114</v>
+        <v>0.8426377342338279</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8723502865623536</v>
+        <v>0.8716890960672468</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>97625</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79487</v>
+        <v>80649</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117519</v>
+        <v>118978</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08704152416817081</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07086974594054338</v>
+        <v>0.07190613788379119</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.104778564267952</v>
+        <v>0.106079661364179</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>137</v>
@@ -1412,19 +1412,19 @@
         <v>139394</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118339</v>
+        <v>117112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161292</v>
+        <v>160769</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1402434297336312</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1190604062101111</v>
+        <v>0.1178257730328643</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.162275112362351</v>
+        <v>0.1617487735433363</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>237</v>
@@ -1433,19 +1433,19 @@
         <v>237019</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>206498</v>
+        <v>210322</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>264566</v>
+        <v>267740</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1120373332537883</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09761047586228723</v>
+        <v>0.09941806507902641</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1250589233552451</v>
+        <v>0.1265589849048809</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>23527</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14961</v>
+        <v>15426</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34793</v>
+        <v>35617</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02097629582550229</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01333879739894409</v>
+        <v>0.01375345523233666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0310206937787459</v>
+        <v>0.03175583873805014</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -1483,19 +1483,19 @@
         <v>40503</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28901</v>
+        <v>28995</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54390</v>
+        <v>54749</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04074968384995527</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02907701834887944</v>
+        <v>0.02917225736479957</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05472120470914137</v>
+        <v>0.05508239454448212</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -1504,19 +1504,19 @@
         <v>64030</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>49403</v>
+        <v>49973</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>81049</v>
+        <v>80665</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03026641103438193</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02335230186486896</v>
+        <v>0.02362189103352357</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03831121703983444</v>
+        <v>0.0381298395722668</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>417981</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>406615</v>
+        <v>406068</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>427862</v>
+        <v>426868</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9346620087664124</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9092457315635245</v>
+        <v>0.9080234710978695</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9567577021872226</v>
+        <v>0.9545344701360764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>298</v>
@@ -1629,19 +1629,19 @@
         <v>298994</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>286477</v>
+        <v>285435</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>311491</v>
+        <v>310181</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8764087837608457</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8397204243507103</v>
+        <v>0.8366641708720246</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9130409506812223</v>
+        <v>0.909199200787391</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>704</v>
@@ -1650,19 +1650,19 @@
         <v>716975</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>699095</v>
+        <v>700497</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>731657</v>
+        <v>731535</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9094531981920116</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8867733530220766</v>
+        <v>0.8885518768727548</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9280773868027998</v>
+        <v>0.9279219932441192</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>20281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12658</v>
+        <v>13350</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28979</v>
+        <v>30829</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04535131699804662</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02830393354835635</v>
+        <v>0.02985285828892817</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06480057611387385</v>
+        <v>0.06893790401425541</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1700,19 +1700,19 @@
         <v>29090</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19344</v>
+        <v>20394</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40096</v>
+        <v>40729</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0852679213003095</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0567021190091086</v>
+        <v>0.05977849039120901</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1175279099768585</v>
+        <v>0.1193840369581747</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>50</v>
@@ -1721,19 +1721,19 @@
         <v>49371</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37878</v>
+        <v>37660</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>63448</v>
+        <v>64455</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06262504075381974</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0480469666702777</v>
+        <v>0.04776996560874707</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08048087637868279</v>
+        <v>0.08175910527649201</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>8938</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4440</v>
+        <v>4462</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17843</v>
+        <v>18062</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01998667423554105</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009929383777455289</v>
+        <v>0.009977787617532914</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03989944159490366</v>
+        <v>0.04039004114605188</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -1771,19 +1771,19 @@
         <v>13074</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7179</v>
+        <v>6793</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21172</v>
+        <v>21316</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03832329493884475</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0210427042070016</v>
+        <v>0.01991162502027298</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06205789807364924</v>
+        <v>0.06248255075788754</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -1792,19 +1792,19 @@
         <v>22012</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13552</v>
+        <v>13875</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31721</v>
+        <v>32831</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02792176105416861</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0171906446446334</v>
+        <v>0.01759963125738708</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04023731909053277</v>
+        <v>0.04164429974279867</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2785586</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2740988</v>
+        <v>2748458</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2820762</v>
+        <v>2825963</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8621893412978523</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8483854917420178</v>
+        <v>0.8506973922110928</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8730767750217374</v>
+        <v>0.8746866282295515</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2495</v>
@@ -1917,19 +1917,19 @@
         <v>2549785</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2499462</v>
+        <v>2504254</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2598038</v>
+        <v>2599799</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7691731755346687</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7539926044621482</v>
+        <v>0.7554382525848541</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7837292356821637</v>
+        <v>0.7842604654945082</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5207</v>
@@ -1938,19 +1938,19 @@
         <v>5335372</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5274045</v>
+        <v>5265038</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5394329</v>
+        <v>5402576</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8150834446808213</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8057145225648659</v>
+        <v>0.8043385981425847</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8240904003467859</v>
+        <v>0.8253502978660926</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>332044</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>304226</v>
+        <v>299353</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>371620</v>
+        <v>368635</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1027736720943042</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09416329648134426</v>
+        <v>0.09265509994054991</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1150231318133488</v>
+        <v>0.1140990810588389</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>541</v>
@@ -1988,19 +1988,19 @@
         <v>556839</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>515585</v>
+        <v>513179</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>605599</v>
+        <v>597656</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1679772594937174</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1555323910326585</v>
+        <v>0.154806595142487</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1826862055629407</v>
+        <v>0.1802899610333927</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>882</v>
@@ -2009,19 +2009,19 @@
         <v>888884</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>835439</v>
+        <v>830590</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>941172</v>
+        <v>948354</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1357945284357296</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.127629768483711</v>
+        <v>0.1268890605118108</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1437826859215552</v>
+        <v>0.1448798055182001</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>113199</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>93818</v>
+        <v>95065</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>134315</v>
+        <v>135758</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03503698660784348</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02903850266619387</v>
+        <v>0.02942430499734125</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0415729841094474</v>
+        <v>0.04201968952648562</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>198</v>
@@ -2059,19 +2059,19 @@
         <v>208344</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>183473</v>
+        <v>183738</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>238734</v>
+        <v>239423</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06284956497161391</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0553467261858583</v>
+        <v>0.05542676538712156</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07201695284131998</v>
+        <v>0.07222491111453512</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>313</v>
@@ -2080,19 +2080,19 @@
         <v>321543</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>288883</v>
+        <v>286878</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>356217</v>
+        <v>359344</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04912202688344902</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04413253526685509</v>
+        <v>0.04382634269384466</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05441923908115964</v>
+        <v>0.05489684997062913</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>870530</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>842034</v>
+        <v>846095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>894138</v>
+        <v>895154</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8338930137789123</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8065965046181509</v>
+        <v>0.8104865860660441</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8565072629008116</v>
+        <v>0.8574803220481053</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>745</v>
@@ -2445,19 +2445,19 @@
         <v>810516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>776993</v>
+        <v>777351</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>840096</v>
+        <v>840021</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7237213059757632</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6937887084501214</v>
+        <v>0.6941076132689915</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7501343224054496</v>
+        <v>0.750067067439861</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1564</v>
@@ -2466,19 +2466,19 @@
         <v>1681046</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1641370</v>
+        <v>1636698</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1720252</v>
+        <v>1716297</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7768725781660775</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7585371226051166</v>
+        <v>0.7563776361833269</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7949911203353303</v>
+        <v>0.7931633274415582</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>101250</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>82913</v>
+        <v>82798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123250</v>
+        <v>122869</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09698903716800622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07942358842591757</v>
+        <v>0.07931355786731968</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1180628691862668</v>
+        <v>0.1176980775840444</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -2516,19 +2516,19 @@
         <v>167063</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142183</v>
+        <v>144473</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>192094</v>
+        <v>193539</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1491732143629277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1269570867757627</v>
+        <v>0.1290016513961376</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1715231550620076</v>
+        <v>0.1728133838904708</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>248</v>
@@ -2537,19 +2537,19 @@
         <v>268314</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>238319</v>
+        <v>239939</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>301520</v>
+        <v>303646</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1239974640598578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1101361042619384</v>
+        <v>0.1108844525118309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.139343580146716</v>
+        <v>0.1403258160628925</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>72155</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56454</v>
+        <v>56770</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91685</v>
+        <v>91139</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0691179490530814</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05407790270379775</v>
+        <v>0.05438048920529558</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08782616303135779</v>
+        <v>0.08730325899251931</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>132</v>
@@ -2587,19 +2587,19 @@
         <v>142349</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>120403</v>
+        <v>120137</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>168061</v>
+        <v>165248</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1271054796613091</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1075100062652116</v>
+        <v>0.1072716592194971</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.150064467916052</v>
+        <v>0.1475519709429554</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>197</v>
@@ -2608,19 +2608,19 @@
         <v>214504</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>186706</v>
+        <v>185593</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>245097</v>
+        <v>246115</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09912995777406472</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08628364818790216</v>
+        <v>0.08576923232717432</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.11326810511341</v>
+        <v>0.1137388203116265</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>815695</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>789073</v>
+        <v>790767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>837442</v>
+        <v>838685</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8365626571685932</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8092588731264333</v>
+        <v>0.8109961811345886</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8588656658119095</v>
+        <v>0.8601403580244036</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>738</v>
@@ -2733,19 +2733,19 @@
         <v>791757</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>759840</v>
+        <v>761515</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>821172</v>
+        <v>823235</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7242730924327822</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6950764055531884</v>
+        <v>0.6966085319677754</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7511803233147232</v>
+        <v>0.7530681256618618</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1517</v>
@@ -2754,19 +2754,19 @@
         <v>1607453</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1566650</v>
+        <v>1565203</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1644211</v>
+        <v>1645941</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7772113890409006</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7574831144639167</v>
+        <v>0.7567835157621526</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7949840660472979</v>
+        <v>0.7958205498044945</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>113969</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>94268</v>
+        <v>93216</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>137077</v>
+        <v>135135</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1168844550063299</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09667956201321842</v>
+        <v>0.09560086493758184</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1405838811126135</v>
+        <v>0.1385924091401231</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>185</v>
@@ -2804,19 +2804,19 @@
         <v>196711</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>174434</v>
+        <v>171151</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>227038</v>
+        <v>222260</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1799446546326622</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1595665701557633</v>
+        <v>0.1565629449037908</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2076869946605059</v>
+        <v>0.2033157409754399</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>289</v>
@@ -2825,19 +2825,19 @@
         <v>310680</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>279683</v>
+        <v>278235</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>345705</v>
+        <v>343600</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1502152709642856</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1352279976683974</v>
+        <v>0.1345281720257113</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1671500270016717</v>
+        <v>0.1661322185238566</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>45392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33407</v>
+        <v>32324</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61843</v>
+        <v>62377</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04655288782507692</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0342614771295807</v>
+        <v>0.03315140100029555</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06342483703193058</v>
+        <v>0.06397302377957663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>96</v>
@@ -2875,19 +2875,19 @@
         <v>104707</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83949</v>
+        <v>84843</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125421</v>
+        <v>126598</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09578225293455567</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0767938264642604</v>
+        <v>0.07761128455938171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1147313681871634</v>
+        <v>0.1158071798243985</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>135</v>
@@ -2896,19 +2896,19 @@
         <v>150098</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127395</v>
+        <v>125944</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176545</v>
+        <v>175982</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07257333999481384</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06159597130283147</v>
+        <v>0.06089434000282817</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08536016511651898</v>
+        <v>0.0850881622622552</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>756575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>735094</v>
+        <v>734715</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>777401</v>
+        <v>777028</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8547757258759595</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8305063112765483</v>
+        <v>0.8300790843824349</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8783049095305239</v>
+        <v>0.8778840984429823</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>635</v>
@@ -3021,19 +3021,19 @@
         <v>673543</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>647862</v>
+        <v>648084</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>696800</v>
+        <v>698807</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7690639918002448</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7397404722045356</v>
+        <v>0.7399939438823704</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7956192476716275</v>
+        <v>0.7979111946543569</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1347</v>
@@ -3042,19 +3042,19 @@
         <v>1430118</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1392693</v>
+        <v>1393016</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1463510</v>
+        <v>1459311</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8121466663399426</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7908936568092801</v>
+        <v>0.7910769779751968</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8311093624267618</v>
+        <v>0.8287251142461534</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>97247</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78599</v>
+        <v>78099</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116301</v>
+        <v>116706</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1098692992856226</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08880037946958376</v>
+        <v>0.08823578737725769</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1313969033575432</v>
+        <v>0.1318536585114929</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>133</v>
@@ -3092,19 +3092,19 @@
         <v>143832</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>124090</v>
+        <v>123112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>167628</v>
+        <v>167554</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1642299345708229</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1416877302659977</v>
+        <v>0.1405715010792351</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1914010893672456</v>
+        <v>0.1913165876119231</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>222</v>
@@ -3113,19 +3113,19 @@
         <v>241079</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>211691</v>
+        <v>212907</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272431</v>
+        <v>272681</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1369057696473288</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1202170100054178</v>
+        <v>0.1209073015514742</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1547105084295144</v>
+        <v>0.1548522762389893</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>31293</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21215</v>
+        <v>21510</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>43870</v>
+        <v>44679</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03535497483841796</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02396871180820187</v>
+        <v>0.02430217350271813</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04956381783269747</v>
+        <v>0.05047868977057703</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -3163,19 +3163,19 @@
         <v>58421</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45437</v>
+        <v>43694</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75166</v>
+        <v>74666</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06670607362893234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0518809111009858</v>
+        <v>0.04989093841469547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08582604442371412</v>
+        <v>0.08525556369691528</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>82</v>
@@ -3184,19 +3184,19 @@
         <v>89714</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>72142</v>
+        <v>72600</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>112821</v>
+        <v>110870</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05094756401272865</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04096850403041221</v>
+        <v>0.04122885605862633</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06406953928340582</v>
+        <v>0.06296158852870526</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>435016</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>417916</v>
+        <v>418653</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>450502</v>
+        <v>450204</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8680914916614509</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8339678041089504</v>
+        <v>0.8354371623231625</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.898993157351956</v>
+        <v>0.8983982156885501</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>325</v>
@@ -3309,19 +3309,19 @@
         <v>358302</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>341097</v>
+        <v>339426</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>374933</v>
+        <v>374179</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7914141384267142</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7534121573163132</v>
+        <v>0.7497215604185014</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8281497207122258</v>
+        <v>0.8264834574942687</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>726</v>
@@ -3330,19 +3330,19 @@
         <v>793318</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>768680</v>
+        <v>765794</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>816238</v>
+        <v>814182</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8316974839929688</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8058678851875504</v>
+        <v>0.8028417324755581</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8557263235579249</v>
+        <v>0.853570693078518</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>41430</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29446</v>
+        <v>30160</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55333</v>
+        <v>56163</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08267578857564024</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05876146927051107</v>
+        <v>0.06018521762532957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1104185437275431</v>
+        <v>0.1120751203899855</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -3380,19 +3380,19 @@
         <v>55818</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42805</v>
+        <v>42584</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70578</v>
+        <v>71430</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1232914066894053</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09454694192627841</v>
+        <v>0.09405821507494504</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1558918338739941</v>
+        <v>0.1577734655426071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>89</v>
@@ -3401,19 +3401,19 @@
         <v>97249</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>78577</v>
+        <v>80587</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>118349</v>
+        <v>120004</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1019535160236302</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08237885743629045</v>
+        <v>0.08448575605161698</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1240741612768108</v>
+        <v>0.1258096366857232</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>24671</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15748</v>
+        <v>14619</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38141</v>
+        <v>36276</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0492327197629088</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03142650224308381</v>
+        <v>0.02917235776703577</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0761125150550292</v>
+        <v>0.07238973610054295</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -3451,19 +3451,19 @@
         <v>38616</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>27596</v>
+        <v>27157</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>53307</v>
+        <v>50882</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08529445488388059</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06095285600099525</v>
+        <v>0.05998344915332075</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1177444074681481</v>
+        <v>0.1123868595478062</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>57</v>
@@ -3472,19 +3472,19 @@
         <v>63287</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>47939</v>
+        <v>48687</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>81854</v>
+        <v>82843</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06634899998340101</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05025851890400311</v>
+        <v>0.05104219130469013</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08581443598624049</v>
+        <v>0.08685055039185434</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2877817</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2831816</v>
+        <v>2830394</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2917483</v>
+        <v>2922057</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8451181590618267</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8316093993747818</v>
+        <v>0.8311918005651049</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8567668972235614</v>
+        <v>0.8581100772783793</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2443</v>
@@ -3597,19 +3597,19 @@
         <v>2634118</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2578976</v>
+        <v>2579138</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2683346</v>
+        <v>2683286</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7437575574633257</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7281880821632191</v>
+        <v>0.7282336065237157</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.757657547560502</v>
+        <v>0.7576404656458979</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5154</v>
@@ -3618,19 +3618,19 @@
         <v>5511934</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5438456</v>
+        <v>5443214</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5580294</v>
+        <v>5581688</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7934426869412735</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7828654242724727</v>
+        <v>0.7835504053741391</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8032830736125954</v>
+        <v>0.8034837297774134</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>353896</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>317022</v>
+        <v>317993</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>391626</v>
+        <v>392506</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1039275039626181</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09309874361534372</v>
+        <v>0.09338397185182297</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.115007308789648</v>
+        <v>0.1152658047205607</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>523</v>
@@ -3668,19 +3668,19 @@
         <v>563425</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>518756</v>
+        <v>522157</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>607537</v>
+        <v>607462</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1590860293674141</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1464737325465391</v>
+        <v>0.1474339834895099</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.171541412658765</v>
+        <v>0.171520187182739</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>848</v>
@@ -3689,19 +3689,19 @@
         <v>917321</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>858286</v>
+        <v>858744</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>974897</v>
+        <v>971954</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.132048320106319</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1235501850574043</v>
+        <v>0.1236161424912384</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1403363317493831</v>
+        <v>0.1399126903547202</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>173511</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>146682</v>
+        <v>149270</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>202366</v>
+        <v>203147</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05095433697555524</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04307548205943643</v>
+        <v>0.04383571170582344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05942819413451052</v>
+        <v>0.05965738374195392</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>317</v>
@@ -3739,19 +3739,19 @@
         <v>344093</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>310102</v>
+        <v>312286</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>382168</v>
+        <v>382520</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09715641316926016</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08755907686113981</v>
+        <v>0.08817557468705881</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1079071199729546</v>
+        <v>0.1080067090326138</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>471</v>
@@ -3760,19 +3760,19 @@
         <v>517603</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>472785</v>
+        <v>474962</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>567015</v>
+        <v>564504</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07450899295240751</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06805733339397005</v>
+        <v>0.06837069901209478</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0816218307485596</v>
+        <v>0.08126038956748158</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>938893</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>916152</v>
+        <v>912468</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>965336</v>
+        <v>962224</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8323540074103765</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8121933729679098</v>
+        <v>0.8089278117062219</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8557969372021622</v>
+        <v>0.85303762124741</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>892</v>
@@ -4125,19 +4125,19 @@
         <v>917123</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>879832</v>
+        <v>883691</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>950655</v>
+        <v>951467</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7281293284749152</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.698522542506979</v>
+        <v>0.7015863385946527</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7547510659683783</v>
+        <v>0.7553956480658659</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1773</v>
@@ -4146,19 +4146,19 @@
         <v>1856016</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1806824</v>
+        <v>1815540</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1897046</v>
+        <v>1899200</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7773700795474934</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7567665979639498</v>
+        <v>0.7604169610232301</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7945549358817516</v>
+        <v>0.7954570332770451</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>123590</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>102937</v>
+        <v>104193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143665</v>
+        <v>147033</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1095654803749936</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09125616729582682</v>
+        <v>0.09237007681131819</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1273628982502701</v>
+        <v>0.1303485185684418</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>167</v>
@@ -4196,19 +4196,19 @@
         <v>191083</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>165873</v>
+        <v>162630</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>218758</v>
+        <v>216631</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1517061199942599</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1316907569015647</v>
+        <v>0.1291168099024524</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1736778095378654</v>
+        <v>0.1719896304531785</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>286</v>
@@ -4217,19 +4217,19 @@
         <v>314673</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>282001</v>
+        <v>280477</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>351150</v>
+        <v>350306</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.131796855060794</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1181129369087277</v>
+        <v>0.117474214908637</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1470747586842471</v>
+        <v>0.1467213350724109</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>65515</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51760</v>
+        <v>51234</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83163</v>
+        <v>83842</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05808051221462996</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04588631719440297</v>
+        <v>0.04542077665996423</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07372587356446726</v>
+        <v>0.07432843893309922</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>129</v>
@@ -4267,19 +4267,19 @@
         <v>151355</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>129060</v>
+        <v>129022</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>180997</v>
+        <v>177225</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1201645515308249</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1024641581465355</v>
+        <v>0.1024343176763503</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1436987117520586</v>
+        <v>0.1407036778673165</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>195</v>
@@ -4288,19 +4288,19 @@
         <v>216869</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>189424</v>
+        <v>191631</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>248479</v>
+        <v>248169</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09083306539171257</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07933798123831635</v>
+        <v>0.08026245534285728</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1040722848118417</v>
+        <v>0.1039428134453138</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>774797</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>752547</v>
+        <v>751156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>793654</v>
+        <v>796062</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8525259494598015</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8280442809240632</v>
+        <v>0.8265130547956123</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8732747554087138</v>
+        <v>0.8759246581719352</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>752</v>
@@ -4413,19 +4413,19 @@
         <v>782409</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>755215</v>
+        <v>754310</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>810389</v>
+        <v>809505</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7773756997661759</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7503562496242225</v>
+        <v>0.7494570862812941</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8051757368037983</v>
+        <v>0.8042969484749566</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1498</v>
@@ -4434,19 +4434,19 @@
         <v>1557206</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1521700</v>
+        <v>1521838</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1590109</v>
+        <v>1592510</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8130350776013809</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.794496750688943</v>
+        <v>0.7945692139513012</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.830214105847924</v>
+        <v>0.8314678107619671</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>97348</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>79264</v>
+        <v>80211</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>116760</v>
+        <v>118845</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1071142181303449</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08721581585095972</v>
+        <v>0.08825837620136488</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1284734608415648</v>
+        <v>0.1307678081509795</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>133</v>
@@ -4484,19 +4484,19 @@
         <v>146551</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>124879</v>
+        <v>123935</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>169782</v>
+        <v>172033</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1456082448809029</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1240752461458941</v>
+        <v>0.1231380671179718</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.168689521113508</v>
+        <v>0.1709264700274861</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>230</v>
@@ -4505,19 +4505,19 @@
         <v>243899</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>214591</v>
+        <v>214120</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>274505</v>
+        <v>274327</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1273425298647481</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1120402344394413</v>
+        <v>0.1117943795034941</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1433221184817361</v>
+        <v>0.1432290778333128</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>36680</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26838</v>
+        <v>26286</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50307</v>
+        <v>51862</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04035983240985358</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02953060809311451</v>
+        <v>0.02892291011642676</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0553541575039565</v>
+        <v>0.05706490201297008</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -4555,19 +4555,19 @@
         <v>77515</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60936</v>
+        <v>61314</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97719</v>
+        <v>99550</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07701605535292111</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06054394976814084</v>
+        <v>0.06091925550085209</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09709002157983937</v>
+        <v>0.09890963527224136</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>104</v>
@@ -4576,19 +4576,19 @@
         <v>114195</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93775</v>
+        <v>94175</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138303</v>
+        <v>138087</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0596223925338709</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04896103490177911</v>
+        <v>0.04916989999984815</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07220936992743919</v>
+        <v>0.07209678934811366</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>729428</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>711038</v>
+        <v>711873</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>746154</v>
+        <v>746515</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8854872051178013</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.863162444315511</v>
+        <v>0.8641764955143834</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9057911436203226</v>
+        <v>0.9062295316639124</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>587</v>
@@ -4701,19 +4701,19 @@
         <v>606147</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>580435</v>
+        <v>578056</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>630527</v>
+        <v>628616</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7861225328112291</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7527760060619013</v>
+        <v>0.7496906623530255</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8177413119843226</v>
+        <v>0.8152627160804028</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1277</v>
@@ -4722,19 +4722,19 @@
         <v>1335575</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1301228</v>
+        <v>1305475</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1362986</v>
+        <v>1366801</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8374466166621928</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8159100109708586</v>
+        <v>0.8185731336380988</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8546343080745114</v>
+        <v>0.8570265013782394</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>68604</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54811</v>
+        <v>54791</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85681</v>
+        <v>85094</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0832816051090516</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06653767973728054</v>
+        <v>0.06651306680989184</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1040127516712687</v>
+        <v>0.1033001054664136</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -4772,19 +4772,19 @@
         <v>109687</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>90493</v>
+        <v>92404</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>133488</v>
+        <v>131769</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1422545665020943</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.117362570020118</v>
+        <v>0.1198398598006691</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1731223425885397</v>
+        <v>0.17089340180027</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>165</v>
@@ -4793,19 +4793,19 @@
         <v>178291</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>152523</v>
+        <v>153024</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>206742</v>
+        <v>205249</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1117937080781092</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09563646159418489</v>
+        <v>0.0959510052597831</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1296335943144754</v>
+        <v>0.1286977382380476</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>25727</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17506</v>
+        <v>17572</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36884</v>
+        <v>36477</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03123118977314709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02125126997095208</v>
+        <v>0.02133127902346528</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04477560817664076</v>
+        <v>0.04428078048150126</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -4843,19 +4843,19 @@
         <v>55225</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41289</v>
+        <v>39884</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>71316</v>
+        <v>72386</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07162290068667658</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05354797387736592</v>
+        <v>0.05172587279958878</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09249066057581672</v>
+        <v>0.09387853945955747</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>73</v>
@@ -4864,19 +4864,19 @@
         <v>80952</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>63157</v>
+        <v>62761</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>99982</v>
+        <v>99481</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05075967525969799</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03960151849589714</v>
+        <v>0.03935316924951596</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06269153077170118</v>
+        <v>0.06237770470094036</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>439010</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>421569</v>
+        <v>420353</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>453825</v>
+        <v>453071</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8664084817321859</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8319874197425245</v>
+        <v>0.8295880726687739</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8956467683753747</v>
+        <v>0.8941594096123664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>396</v>
@@ -4989,19 +4989,19 @@
         <v>419293</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>403055</v>
+        <v>401844</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>435522</v>
+        <v>434712</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8562285494160206</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8230675483722146</v>
+        <v>0.8205960427867074</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8893685463191535</v>
+        <v>0.8877136032246952</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>803</v>
@@ -5010,19 +5010,19 @@
         <v>858303</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>834877</v>
+        <v>834222</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>882254</v>
+        <v>880464</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8614053748749723</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8378945978925559</v>
+        <v>0.8372380634497734</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8854431447512904</v>
+        <v>0.8836467562720709</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>43909</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32761</v>
+        <v>32858</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>58710</v>
+        <v>60211</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08665727343099444</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0646563828388337</v>
+        <v>0.06484778432598026</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1158664188760903</v>
+        <v>0.1188291458911993</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -5060,19 +5060,19 @@
         <v>38971</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27401</v>
+        <v>27237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53218</v>
+        <v>53818</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07958164116846875</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05595568748509405</v>
+        <v>0.0556198618827775</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1086752323282956</v>
+        <v>0.1098994456191732</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>77</v>
@@ -5081,19 +5081,19 @@
         <v>82880</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64775</v>
+        <v>67682</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103196</v>
+        <v>103144</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08317982945668137</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06500885182301192</v>
+        <v>0.06792639659807208</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1035688146944614</v>
+        <v>0.1035172372632198</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>23782</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14816</v>
+        <v>14987</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35370</v>
+        <v>34521</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0469342448368197</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02924069692756859</v>
+        <v>0.02957683560742442</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06980466951006499</v>
+        <v>0.06812991764640568</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -5131,19 +5131,19 @@
         <v>31434</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20084</v>
+        <v>21155</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45761</v>
+        <v>46292</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06418980941551065</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04101274259508805</v>
+        <v>0.04320105990985915</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09344780526311683</v>
+        <v>0.09453230663623767</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>46</v>
@@ -5152,19 +5152,19 @@
         <v>55215</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>40806</v>
+        <v>41659</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>74621</v>
+        <v>73924</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05541479566834632</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0409537612816467</v>
+        <v>0.04180994805018206</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.074890866524904</v>
+        <v>0.07419082910757195</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2882128</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2842081</v>
+        <v>2840959</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2922420</v>
+        <v>2923731</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8559211327657137</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8440283455793228</v>
+        <v>0.8436950092903334</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8678868574588521</v>
+        <v>0.8682761123537831</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2627</v>
@@ -5277,19 +5277,19 @@
         <v>2724972</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2669457</v>
+        <v>2671313</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2775979</v>
+        <v>2774007</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7726489040754786</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7569079149676492</v>
+        <v>0.7574342988678313</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7871117443034904</v>
+        <v>0.7865524742293525</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5351</v>
@@ -5298,19 +5298,19 @@
         <v>5607101</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5536849</v>
+        <v>5535618</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5679052</v>
+        <v>5670931</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8133216721642142</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8031315193846424</v>
+        <v>0.8029530061690343</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8237583028477122</v>
+        <v>0.8225803789337343</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>333451</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>299492</v>
+        <v>298796</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>368428</v>
+        <v>366309</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09902672460692634</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08894169047347893</v>
+        <v>0.08873503113178388</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1094141965361682</v>
+        <v>0.1087846249838366</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>430</v>
@@ -5348,19 +5348,19 @@
         <v>486292</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>443586</v>
+        <v>444132</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>530859</v>
+        <v>531644</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1378849933580601</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1257761734546271</v>
+        <v>0.1259309404243043</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1505217926402075</v>
+        <v>0.1507443560975403</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>758</v>
@@ -5369,19 +5369,19 @@
         <v>819743</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>759999</v>
+        <v>764188</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>874694</v>
+        <v>878933</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1189053962210141</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1102393722931402</v>
+        <v>0.1108471248268929</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1268761443715223</v>
+        <v>0.1274911275908528</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>151703</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>129205</v>
+        <v>126975</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>176339</v>
+        <v>177345</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04505214262735995</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03837079697321443</v>
+        <v>0.03770855030920133</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05236835122019527</v>
+        <v>0.05266723079321253</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>265</v>
@@ -5419,19 +5419,19 @@
         <v>315528</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>280966</v>
+        <v>278699</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>354686</v>
+        <v>352246</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08946610256646131</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07966620657473386</v>
+        <v>0.07902341707918968</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1005691251563087</v>
+        <v>0.09987730317623097</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>418</v>
@@ -5440,19 +5440,19 @@
         <v>467232</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>423069</v>
+        <v>425749</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>514382</v>
+        <v>516315</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06777293161477166</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06136702505961342</v>
+        <v>0.06175583248950266</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0746121628906585</v>
+        <v>0.0748925383026746</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>372576</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>351921</v>
+        <v>353034</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>391408</v>
+        <v>392073</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7470366772233458</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7056206632851246</v>
+        <v>0.7078527119685164</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7847949320466591</v>
+        <v>0.7861288985550547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>514</v>
@@ -5805,19 +5805,19 @@
         <v>415594</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>393914</v>
+        <v>395081</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>432543</v>
+        <v>433467</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6664641593052487</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6316971609316731</v>
+        <v>0.6335684569415273</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6936446492199694</v>
+        <v>0.6951257491703974</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>832</v>
@@ -5826,19 +5826,19 @@
         <v>788171</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>758531</v>
+        <v>757904</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>816217</v>
+        <v>814620</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7022691867607117</v>
+        <v>0.7022691867607118</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.675859640976591</v>
+        <v>0.6753013269142315</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7272584756464182</v>
+        <v>0.7258357516059167</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>75927</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>61699</v>
+        <v>59985</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95191</v>
+        <v>94079</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1522372897541806</v>
+        <v>0.1522372897541807</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1237102263668253</v>
+        <v>0.1202724840087868</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1908640425523913</v>
+        <v>0.188634414573634</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>179</v>
@@ -5876,19 +5876,19 @@
         <v>108468</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>93531</v>
+        <v>94959</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123493</v>
+        <v>124346</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1739439132000561</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1499896090243891</v>
+        <v>0.152279745651606</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1980384842958267</v>
+        <v>0.1994066747181557</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>257</v>
@@ -5897,19 +5897,19 @@
         <v>184395</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>162979</v>
+        <v>164212</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>209468</v>
+        <v>208322</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1642978667747104</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1452157885153169</v>
+        <v>0.1463152192094996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1866379735152081</v>
+        <v>0.1856169277858276</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>50236</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38946</v>
+        <v>38161</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64621</v>
+        <v>64512</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1007260330224735</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07808920296085572</v>
+        <v>0.07651560464199691</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1295678573103136</v>
+        <v>0.1293495411260576</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>168</v>
@@ -5947,19 +5947,19 @@
         <v>99518</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>85880</v>
+        <v>87058</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>115385</v>
+        <v>116889</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1595919274946949</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1377211553342893</v>
+        <v>0.1396106542688476</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1850361608320935</v>
+        <v>0.1874488169390762</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>227</v>
@@ -5968,19 +5968,19 @@
         <v>149754</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>130548</v>
+        <v>130079</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>169429</v>
+        <v>170396</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1334329464645779</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1163201997706307</v>
+        <v>0.1159019166320438</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1509632072977085</v>
+        <v>0.151824481727452</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>790717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>763723</v>
+        <v>768399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>811583</v>
+        <v>813456</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8235458979492623</v>
+        <v>0.8235458979492624</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7954310457041123</v>
+        <v>0.8003017346310716</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8452785809179757</v>
+        <v>0.847229467436481</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1101</v>
@@ -6093,19 +6093,19 @@
         <v>824951</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>799785</v>
+        <v>800705</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>848744</v>
+        <v>849892</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7393032001609514</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7167505769976031</v>
+        <v>0.7175749436873758</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7606265984575439</v>
+        <v>0.76165476337598</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1810</v>
@@ -6114,19 +6114,19 @@
         <v>1615668</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1581709</v>
+        <v>1582671</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1650002</v>
+        <v>1650255</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7782651702302197</v>
+        <v>0.7782651702302196</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7619071528454762</v>
+        <v>0.7623706332230764</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7948039786512663</v>
+        <v>0.7949260098031821</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>113279</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>95127</v>
+        <v>95311</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>133623</v>
+        <v>132590</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1179826129008846</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09907676914834196</v>
+        <v>0.09926769452308581</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1391706905174471</v>
+        <v>0.1380943930411638</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>310</v>
@@ -6164,19 +6164,19 @@
         <v>181297</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>161367</v>
+        <v>162131</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>202803</v>
+        <v>199037</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.162474372693465</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1446137409805563</v>
+        <v>0.1452983106979638</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1817475604066286</v>
+        <v>0.1783725334568056</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>441</v>
@@ -6185,19 +6185,19 @@
         <v>294576</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>266779</v>
+        <v>266452</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>320583</v>
+        <v>322818</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1418970804310118</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1285072388302335</v>
+        <v>0.1283495271178928</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1544244450836993</v>
+        <v>0.1555011738579472</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>56141</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44289</v>
+        <v>43818</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73814</v>
+        <v>73929</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05847148914985319</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04612821015636476</v>
+        <v>0.04563746829546008</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07687881519682133</v>
+        <v>0.07699800090049558</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>196</v>
@@ -6235,19 +6235,19 @@
         <v>109601</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95358</v>
+        <v>94515</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>128076</v>
+        <v>127188</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09822242714558341</v>
+        <v>0.09822242714558342</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08545775779319437</v>
+        <v>0.08470205538520444</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1147791581718881</v>
+        <v>0.1139831875831741</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>266</v>
@@ -6256,19 +6256,19 @@
         <v>165742</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>146050</v>
+        <v>144804</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>188254</v>
+        <v>188009</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07983774933876847</v>
+        <v>0.07983774933876844</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07035217267860742</v>
+        <v>0.06975180109471363</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09068184802428435</v>
+        <v>0.09056348507273612</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>926567</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>907267</v>
+        <v>903593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>944427</v>
+        <v>944227</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8854142869762829</v>
+        <v>0.885414286976283</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8669706347756773</v>
+        <v>0.8634601283659344</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9024806159763539</v>
+        <v>0.9022891770926307</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1171</v>
@@ -6381,19 +6381,19 @@
         <v>853500</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>832714</v>
+        <v>834089</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>871030</v>
+        <v>873102</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8151352740624918</v>
+        <v>0.815135274062492</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7952836984438336</v>
+        <v>0.7965972322514236</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.831877626124671</v>
+        <v>0.8338564202883062</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2051</v>
@@ -6402,19 +6402,19 @@
         <v>1780067</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1751176</v>
+        <v>1749948</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1807529</v>
+        <v>1805752</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8502649447507528</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8364647176580222</v>
+        <v>0.8358783634855778</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8633825125702913</v>
+        <v>0.8625337676735163</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>89318</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73708</v>
+        <v>74321</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106026</v>
+        <v>109783</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08535142826293099</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07043444598025338</v>
+        <v>0.07102036136217466</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1013169326976582</v>
+        <v>0.1049067919243226</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>252</v>
@@ -6452,19 +6452,19 @@
         <v>139496</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>123773</v>
+        <v>123824</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>158021</v>
+        <v>156731</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1332258878372864</v>
+        <v>0.1332258878372863</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1182090866759256</v>
+        <v>0.1182582075988727</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.150918188004004</v>
+        <v>0.149686288144537</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>359</v>
@@ -6473,19 +6473,19 @@
         <v>228815</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>205521</v>
+        <v>205600</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>253707</v>
+        <v>254321</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1092953582311208</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09816898125758289</v>
+        <v>0.0982066298023936</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1211855388359943</v>
+        <v>0.121478588375121</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>30593</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21738</v>
+        <v>22173</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>43000</v>
+        <v>41506</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02923428476078607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02077237744435128</v>
+        <v>0.02118842857124508</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04109053027334415</v>
+        <v>0.03966237650669138</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>92</v>
@@ -6523,19 +6523,19 @@
         <v>54069</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42955</v>
+        <v>42925</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>66275</v>
+        <v>65942</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05163883810022181</v>
+        <v>0.05163883810022182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04102396943581759</v>
+        <v>0.0409956802317757</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06329626326581451</v>
+        <v>0.06297760043739645</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>134</v>
@@ -6544,19 +6544,19 @@
         <v>84662</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>70616</v>
+        <v>70921</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100988</v>
+        <v>101953</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04043969701812633</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03373052557177828</v>
+        <v>0.03387601448835061</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04823759486610511</v>
+        <v>0.04869857513465947</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>867317</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>846853</v>
+        <v>847635</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>886116</v>
+        <v>884245</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8895053113978544</v>
+        <v>0.8895053113978543</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8685181581920025</v>
+        <v>0.8693203783626762</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9087855395899701</v>
+        <v>0.9068672859029543</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1063</v>
@@ -6669,19 +6669,19 @@
         <v>762546</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>742853</v>
+        <v>743246</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>778854</v>
+        <v>778574</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8382303448548627</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8165829258940251</v>
+        <v>0.8170147191677403</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8561570892022528</v>
+        <v>0.8558498491957893</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1873</v>
@@ -6690,19 +6690,19 @@
         <v>1629862</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1606050</v>
+        <v>1601751</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1655291</v>
+        <v>1653719</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8647567003181955</v>
+        <v>0.8647567003181954</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8521228172301456</v>
+        <v>0.8498415980737082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8782486356621055</v>
+        <v>0.8774144088743188</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>83706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>67195</v>
+        <v>68003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>100918</v>
+        <v>100751</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08584786134953114</v>
+        <v>0.08584786134953112</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06891379127485268</v>
+        <v>0.06974288557140206</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1034997204819209</v>
+        <v>0.1033290054558941</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>193</v>
@@ -6740,19 +6740,19 @@
         <v>109269</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>94126</v>
+        <v>95614</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>125808</v>
+        <v>127485</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.120114582272362</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1034677620218428</v>
+        <v>0.1051036151900321</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1382943824657949</v>
+        <v>0.1401385285376459</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>298</v>
@@ -6761,19 +6761,19 @@
         <v>192976</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>169905</v>
+        <v>171291</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>214255</v>
+        <v>218459</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1023871944056199</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0901466593680999</v>
+        <v>0.09088191117313206</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1136774578136473</v>
+        <v>0.1159076881566206</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>24032</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15280</v>
+        <v>16437</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32990</v>
+        <v>33706</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02464682725261459</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01567106336120285</v>
+        <v>0.01685802299227283</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03383417390849257</v>
+        <v>0.03456842360701444</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -6811,19 +6811,19 @@
         <v>37894</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29950</v>
+        <v>28938</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48334</v>
+        <v>46944</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04165507287277535</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03292275889809535</v>
+        <v>0.03181066159566867</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05313096526671177</v>
+        <v>0.05160289216916261</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>98</v>
@@ -6832,19 +6832,19 @@
         <v>61926</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>50243</v>
+        <v>49580</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>74084</v>
+        <v>76118</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03285610527618461</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02665737464451385</v>
+        <v>0.02630553491907995</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03930685396230931</v>
+        <v>0.04038595337535564</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>2957177</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2916573</v>
+        <v>2914552</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2998375</v>
+        <v>2997650</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.849663473449537</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8379970396123252</v>
+        <v>0.8374163515136935</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8615004498195699</v>
+        <v>0.8612921625998293</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3849</v>
@@ -6957,19 +6957,19 @@
         <v>2856590</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2817398</v>
+        <v>2815243</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2894986</v>
+        <v>2898913</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7728443777993176</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7622410272031523</v>
+        <v>0.7616578511219723</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7832322657265444</v>
+        <v>0.7842945100099773</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6566</v>
@@ -6978,19 +6978,19 @@
         <v>5813768</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5757435</v>
+        <v>5753384</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5874340</v>
+        <v>5871388</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8100989905607027</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8022495390035498</v>
+        <v>0.8016849623385455</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8185391824579362</v>
+        <v>0.8181278400868647</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>362231</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>327767</v>
+        <v>329304</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>399404</v>
+        <v>399609</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1040771113342765</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09417475032798367</v>
+        <v>0.09461643210888442</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1147578871819364</v>
+        <v>0.1148167453672579</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>934</v>
@@ -7028,19 +7028,19 @@
         <v>538530</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>508423</v>
+        <v>503521</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>573185</v>
+        <v>571195</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1456982508658798</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1375527131584816</v>
+        <v>0.1362265192302086</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1550738780914327</v>
+        <v>0.1545354890857712</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1355</v>
@@ -7049,19 +7049,19 @@
         <v>900761</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>848205</v>
+        <v>855156</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>946933</v>
+        <v>951637</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1255134332393131</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1181901593843686</v>
+        <v>0.1191586827766152</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1319469761760276</v>
+        <v>0.1326024463999568</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>161002</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>137080</v>
+        <v>138651</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>183029</v>
+        <v>186676</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04625941521618666</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03938625761309026</v>
+        <v>0.03983758946576751</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05258820583537853</v>
+        <v>0.05363617575644392</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>523</v>
@@ -7099,19 +7099,19 @@
         <v>301083</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>276501</v>
+        <v>274817</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>328640</v>
+        <v>326510</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08145737133480263</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07480673992463822</v>
+        <v>0.07435114418416466</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08891284303908172</v>
+        <v>0.08833661941614826</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>725</v>
@@ -7120,19 +7120,19 @@
         <v>462085</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>429844</v>
+        <v>425607</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>499051</v>
+        <v>497882</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06438757619998417</v>
+        <v>0.06438757619998418</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05989512776196071</v>
+        <v>0.05930464749396448</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06953847557376582</v>
+        <v>0.0693756608772291</v>
       </c>
     </row>
     <row r="23">
